--- a/src/main/java/com/hsy/case/test_case.xlsx
+++ b/src/main/java/com/hsy/case/test_case.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="登录" sheetId="1" r:id="rId1"/>
@@ -630,12 +630,12 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>HTTP状态码错误，接口请求失败。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>{"gid":"69036d6c883442e3aba91ba7d7256d97"}</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTTP状态码错误，接口请求失败</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1074,8 +1074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1822,7 +1822,7 @@
         <v>500</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H7" s="11">
         <v>0</v>
@@ -1870,7 +1870,7 @@
         <v>500</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H9" s="11">
         <v>0</v>
@@ -1903,6 +1903,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3972,7 +3973,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
@@ -4590,7 +4591,7 @@
         <v>64</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="9" t="s">

--- a/src/main/java/com/hsy/case/test_case.xlsx
+++ b/src/main/java/com/hsy/case/test_case.xlsx
@@ -327,10 +327,6 @@
   <si>
     <t>{}</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"username":"13631260632","password":"96e79218965eb72c92a549dd5a330112"}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -636,6 +632,10 @@
   <si>
     <t>HTTP状态码错误，接口请求失败</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"username":"13631260632","password":"e10adc3949ba59abbe56e057f20f883e"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1075,7 +1075,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1692,7 +1692,7 @@
         <v>42</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="10" t="s">
@@ -1716,7 +1716,7 @@
         <v>42</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="10" t="s">
@@ -1740,7 +1740,7 @@
         <v>42</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="10" t="s">
@@ -1812,7 +1812,7 @@
         <v>42</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="10" t="s">
@@ -1822,7 +1822,7 @@
         <v>500</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H7" s="11">
         <v>0</v>
@@ -1836,7 +1836,7 @@
         <v>42</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="10" t="s">
@@ -1860,7 +1860,7 @@
         <v>42</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="10" t="s">
@@ -1870,7 +1870,7 @@
         <v>500</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H9" s="11">
         <v>0</v>
@@ -1884,7 +1884,7 @@
         <v>42</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="10" t="s">
@@ -2526,13 +2526,13 @@
         <v>31</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>32</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F2" s="11">
         <v>0</v>
@@ -2549,13 +2549,13 @@
         <v>33</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>34</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F3" s="11">
         <v>223</v>
@@ -2572,13 +2572,13 @@
         <v>36</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>83</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>84</v>
       </c>
       <c r="F4" s="11">
         <v>131</v>
@@ -2595,13 +2595,13 @@
         <v>38</v>
       </c>
       <c r="B5" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>83</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>84</v>
       </c>
       <c r="F5" s="11">
         <v>131</v>
@@ -2618,13 +2618,13 @@
         <v>40</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C6" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>87</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>88</v>
       </c>
       <c r="F6" s="11">
         <v>131</v>
@@ -2641,13 +2641,13 @@
         <v>41</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>76</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F7" s="11">
         <v>120</v>
@@ -3303,7 +3303,7 @@
         <v>53</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="9" t="s">
@@ -4591,7 +4591,7 @@
         <v>64</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="9" t="s">
@@ -5149,7 +5149,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>66</v>
@@ -5172,7 +5172,7 @@
         <v>72</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>73</v>
